--- a/gerber/FusionPCB/bf-025_bom.xlsx
+++ b/gerber/FusionPCB/bf-025_bom.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/90cd75f8404dc538/@bf_kicad/bf-025/V03L01/FusionPCB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/90cd75f8404dc538/ドキュメント/GitHub/PCB-RGB-LED-276-M5Atom/gerber/FusionPCB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{2DCC1F88-145E-46E5-964F-4FEF08BB6725}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9A3FE71C-E58C-4EAE-9FAC-DB40BDA07683}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{2DCC1F88-145E-46E5-964F-4FEF08BB6725}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FF1BC670-9D41-4CBC-8AB9-6DD3594283CF}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="1335" windowWidth="22605" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Designator</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -53,16 +53,12 @@
     <t>WS2812C-2020</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
-  <si>
-    <t>http://www.world-semi.com/Certifications/details-139-4.html</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -227,15 +223,6 @@
       <color rgb="FF3C3C3C"/>
       <name val="Helvetica"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -535,7 +522,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -662,11 +649,8 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -685,11 +669,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - アクセント 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - アクセント 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -717,7 +698,6 @@
     <cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="チェック セル" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="どちらでもない" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="ハイパーリンク" xfId="42" builtinId="8"/>
     <cellStyle name="メモ" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="リンク セル" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="悪い" xfId="7" builtinId="27" customBuiltin="1"/>
@@ -1047,12 +1027,12 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="52.88671875" style="5" customWidth="1"/>
@@ -1104,9 +1084,6 @@
       <c r="C4" s="2">
         <v>276</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
@@ -1226,10 +1203,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{402E104F-DB08-42F9-92AF-947DB59DBE27}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>